--- a/biology/Botanique/Ptychostomum_capillare/Ptychostomum_capillare.xlsx
+++ b/biology/Botanique/Ptychostomum_capillare/Ptychostomum_capillare.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ptychostomum capillare ou Bryum capillaire est une petite espèce de mousse dioïque acrocarpe, appartenant à la famille des Bryaceae et au genre Ptychostomum[1]. 
+Ptychostomum capillare ou Bryum capillaire est une petite espèce de mousse dioïque acrocarpe, appartenant à la famille des Bryaceae et au genre Ptychostomum. 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une mousse acrocarpe, de un à trois centimètres de haut. Le sporophyte fait 2 à 4 centimètres et se termine par une capsule rouge pendante. Les feuilles du gamétophyte sont relativement larges et spatulées avec une nervure marquée, finissant sous forme d'un poil hyalin[1],[2],[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une mousse acrocarpe, de un à trois centimètres de haut. Le sporophyte fait 2 à 4 centimètres et se termine par une capsule rouge pendante. Les feuilles du gamétophyte sont relativement larges et spatulées avec une nervure marquée, finissant sous forme d'un poil hyalin.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ptychostomum capillare appartenait au genre Bryum jusqu'en 2005, lorsque la classification a été changée[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ptychostomum capillare appartenait au genre Bryum jusqu'en 2005, lorsque la classification a été changée.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Biotope et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ptychostomum capillare est une mousse très commune qui se développe au sein de nombreux habitats différents dont les murs des villes, les rochers et les arbres dans les forêts). Elle supporte assez bien la pollution et la présence de métaux lourds[1],[4].
-L'espèce est présente sur l'ensemble de la planète[6] et dans toutes les régions de France[1],[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ptychostomum capillare est une mousse très commune qui se développe au sein de nombreux habitats différents dont les murs des villes, les rochers et les arbres dans les forêts). Elle supporte assez bien la pollution et la présence de métaux lourds,.
+L'espèce est présente sur l'ensemble de la planète et dans toutes les régions de France,.
 </t>
         </is>
       </c>
